--- a/biology/Botanique/Férule_persique/Férule_persique.xlsx
+++ b/biology/Botanique/Férule_persique/Férule_persique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9rule_persique</t>
+          <t>Férule_persique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le nom Férule persique s'applique en français à plusieurs plantes du genre Ferula dans la famille des Apiaceae. Elles ont en commun de produire des gommes-résines aux usages multiples[1] :
-Ferula persica, dont est extrait le sagapénum[2] ;
-Ferula assa-foetida, dont est extraite l'ase fétide[3] ;
-Ferula foetida, longtemps considérée comme un synonyme de la précédente et qui produit également l'ase fétide[4].</t>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le nom Férule persique s'applique en français à plusieurs plantes du genre Ferula dans la famille des Apiaceae. Elles ont en commun de produire des gommes-résines aux usages multiples :
+Ferula persica, dont est extrait le sagapénum ;
+Ferula assa-foetida, dont est extraite l'ase fétide ;
+Ferula foetida, longtemps considérée comme un synonyme de la précédente et qui produit également l'ase fétide.</t>
         </is>
       </c>
     </row>
